--- a/Análise de Sistemas/PBC - Product Backlog Classified V2.xlsx
+++ b/Análise de Sistemas/PBC - Product Backlog Classified V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gelis\Análise de Sistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE19FEF-CDD1-455C-9F8B-BF6F460B95B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F155DC-6E10-46FA-9D35-1A7A213BE5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>João</t>
   </si>
@@ -148,12 +148,6 @@
     <t>US#1 &lt;Cadastro&gt;</t>
   </si>
   <si>
-    <t>US#2 &lt;Inscrição&gt;</t>
-  </si>
-  <si>
-    <t>US#3&lt;Monitorar&gt;</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -265,106 +259,61 @@
     <t>O sistema deverá usar API de Cadastro e Login</t>
   </si>
   <si>
-    <t>CC#4&lt;Comunicação&gt;</t>
-  </si>
-  <si>
     <t>O sistema deverá usar API para monitorar os computadores</t>
   </si>
   <si>
-    <t>Prototipação das telas do Website</t>
-  </si>
-  <si>
-    <t>CC#8&lt;Monitarar&gt;</t>
-  </si>
-  <si>
-    <t>PT#9&lt;Prototipo de Tela&gt;</t>
-  </si>
-  <si>
-    <t>Elaborar Storyboard</t>
-  </si>
-  <si>
-    <t>Desenho de Arquitetura do Projeto</t>
-  </si>
-  <si>
-    <t>Elaborar DER | O sistema deve capturar as informações de hardware para cada máquina</t>
-  </si>
-  <si>
     <t>Website institucional | Cadastro, Sobre, Serviços, Contato, Download, Login e Paínel de Controle</t>
   </si>
   <si>
-    <t>Proto-Persona</t>
-  </si>
-  <si>
-    <t>Entrevista com uma empresa que renderiza vídeos</t>
-  </si>
-  <si>
     <t>Sistema híbrido | Windows &amp; Linux</t>
   </si>
   <si>
-    <t>CC#5&lt;Comunicação&gt;</t>
-  </si>
-  <si>
-    <t>US#6&lt;Exportar&gt;</t>
-  </si>
-  <si>
     <t>O sistema devera se comunicar com os usuarios via Slack em um grupo</t>
   </si>
   <si>
     <t>O sistema devera se comunicar com o usuario via Slack em particular</t>
   </si>
   <si>
-    <t>CC#7&lt;Cadastro&gt;</t>
-  </si>
-  <si>
-    <t>US#10&lt;Site&gt;</t>
-  </si>
-  <si>
-    <t>SB#11&lt;Storyboard&gt;</t>
-  </si>
-  <si>
-    <t>DR#12&lt;DER&gt;</t>
-  </si>
-  <si>
-    <t>DE#13&lt;Arquitetura&gt;</t>
-  </si>
-  <si>
-    <t>US#14&lt;Persona&gt;</t>
-  </si>
-  <si>
-    <t>EC#15&lt;Entrevista&gt;</t>
-  </si>
-  <si>
-    <t>US#17&lt;Sistema Operacional&gt;</t>
-  </si>
-  <si>
     <t>Monitoramento de aplicativos rodando em segundo plano</t>
   </si>
   <si>
-    <t>US#18&lt;Monitorar&gt;</t>
-  </si>
-  <si>
-    <t>Ferramenta de versionamento do projeto | Repositório no GitHub</t>
-  </si>
-  <si>
-    <t>?#19&lt;Versionamento de Projeto&gt;</t>
-  </si>
-  <si>
     <t>O sistema deve monitorar os hardware das máquinas</t>
   </si>
   <si>
-    <t>DR#20&lt;DER&gt;</t>
-  </si>
-  <si>
-    <t>Elaborar MER | O sistema deve capturar as informações de hardware para cada máquina</t>
-  </si>
-  <si>
     <t>O sistema deve ter um cadastro de usuários</t>
   </si>
   <si>
-    <t>US#1.1 &lt;Cadastro&gt;</t>
-  </si>
-  <si>
-    <t>O sistema deve ter controle individualizado de acessos para o controle da aplicação</t>
+    <t>US#2&lt;Monitorar&gt;</t>
+  </si>
+  <si>
+    <t>US#3&lt;Comunicação&gt;</t>
+  </si>
+  <si>
+    <t>US#3.1&lt;Comunicação&gt;</t>
+  </si>
+  <si>
+    <t>US#4&lt;Exportar&gt;</t>
+  </si>
+  <si>
+    <t>US#8&lt;Site&gt;</t>
+  </si>
+  <si>
+    <t>US#9&lt;Sistema Operacional&gt;</t>
+  </si>
+  <si>
+    <t>US#10&lt;Monitorar&gt;</t>
+  </si>
+  <si>
+    <t>US#11 &lt;Inscrição&gt;</t>
+  </si>
+  <si>
+    <t>US#5&lt;Cadastro&gt;</t>
+  </si>
+  <si>
+    <t>US#6&lt;Monitarar&gt;</t>
+  </si>
+  <si>
+    <t>US#7&lt;Monitarar&gt;</t>
   </si>
 </sst>
 </file>
@@ -374,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -508,6 +457,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Exo"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -547,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -610,15 +565,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -637,6 +583,88 @@
       </top>
       <bottom style="medium">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,7 +693,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,50 +751,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,22 +810,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,7 +832,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -837,39 +880,7 @@
     <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="172">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -913,38 +924,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFEFB661"/>
           <bgColor rgb="FFEFB661"/>
         </patternFill>
@@ -1010,230 +989,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEFB661"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFC8D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFB661"/>
           <bgColor rgb="FFEFB661"/>
         </patternFill>
       </fill>
@@ -1434,6 +1189,70 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <fgColor rgb="FFEFB661"/>
           <bgColor rgb="FFEFB661"/>
@@ -1508,6 +1327,38 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <fgColor rgb="FFEFB661"/>
           <bgColor rgb="FFEFB661"/>
@@ -1584,6 +1435,792 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
           <bgColor rgb="FFEFB661"/>
         </patternFill>
       </fill>
@@ -2511,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -2532,23 +3169,23 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:11" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="B4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>15</v>
@@ -2568,344 +3205,288 @@
     </row>
     <row r="5" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B5" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>88</v>
+      <c r="D5" s="37" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="2:11" s="28" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="B6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>89</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
     </row>
     <row r="7" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
     </row>
     <row r="8" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B8" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="27" t="s">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="2:11" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B9" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="26"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B10" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
-        <v>20</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B11" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="30"/>
       <c r="F11" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
     </row>
     <row r="12" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B12" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="31"/>
+        <v>73</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="30"/>
       <c r="F12" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
     </row>
     <row r="13" spans="2:11" s="28" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B13" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27" t="s">
-        <v>20</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="27"/>
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="2:11" s="28" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B14" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="31"/>
+        <v>68</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="30"/>
       <c r="F14" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
     </row>
     <row r="15" spans="2:11" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="B15" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27" t="s">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="2:11" s="28" customFormat="1" ht="30.75" thickBot="1">
+      <c r="H15" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="B16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="31"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
     <row r="19" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33" t="s">
-        <v>20</v>
-      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
     </row>
     <row r="22" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B22" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>81</v>
-      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
     </row>
     <row r="24" spans="2:8" s="28" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B24" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="33"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="27"/>
     </row>
     <row r="25" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -2913,8 +3494,8 @@
     <row r="26" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="31"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
@@ -2922,8 +3503,8 @@
     <row r="27" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -2931,17 +3512,17 @@
     <row r="28" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="31"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="31"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -2949,32 +3530,18 @@
     <row r="30" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
+    <row r="31" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1"/>
     <row r="32" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -2982,8 +3549,8 @@
     <row r="33" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -2992,444 +3559,697 @@
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
     </row>
     <row r="35" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="C35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="C36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="G37" s="37"/>
+      <c r="C37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="G38" s="37"/>
+      <c r="C38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="C39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="G40" s="37"/>
+      <c r="C40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="G41" s="37"/>
+      <c r="C41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="G42" s="37"/>
+      <c r="C42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="G43" s="37"/>
+      <c r="C43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="G44" s="37"/>
+      <c r="C44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="C45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C46" s="35"/>
-      <c r="E46" s="36"/>
-      <c r="G46" s="37"/>
+      <c r="C46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="G47" s="37"/>
+      <c r="C47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C48" s="35"/>
-      <c r="E48" s="36"/>
-      <c r="G48" s="37"/>
+      <c r="C48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="G49" s="37"/>
+      <c r="C49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="G50" s="37"/>
+      <c r="C50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="G51" s="37"/>
+      <c r="C51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B22:B23 B5:E5 B7:B8 B25:B30 B32:B34 B31:D31">
-    <cfRule type="expression" dxfId="98" priority="200">
+  <conditionalFormatting sqref="B5:E5 B25:B30 B32:B34 B16:D16 B17:B23">
+    <cfRule type="expression" dxfId="171" priority="302">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="201">
+    <cfRule type="expression" dxfId="170" priority="303">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="202">
+    <cfRule type="expression" dxfId="169" priority="304">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="203">
+    <cfRule type="expression" dxfId="168" priority="305">
       <formula>$B5="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C30 C32:C34 C17:C21">
+    <cfRule type="expression" dxfId="167" priority="278">
+      <formula>$B17="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="279">
+      <formula>$B17="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="280">
+      <formula>$B17="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="281">
+      <formula>$B17="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D12 D27:D30 D32:D34 D17:D21 D23:D24">
+    <cfRule type="expression" dxfId="163" priority="269">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="274">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="275">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="276">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="277">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 D22 D15">
+    <cfRule type="expression" dxfId="158" priority="323">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="324">
+      <formula>$B12="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="325">
+      <formula>$B12="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="326">
+      <formula>$B12="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="327">
+      <formula>$B12="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C30 C33 C18:C21">
+    <cfRule type="expression" dxfId="153" priority="238">
+      <formula>$B17="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="239">
+      <formula>$B17="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="240">
+      <formula>$B17="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="241">
+      <formula>$B17="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D26">
+    <cfRule type="expression" dxfId="149" priority="333">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="334">
+      <formula>$B24="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="335">
+      <formula>$B24="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="336">
+      <formula>$B24="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="337">
+      <formula>$B24="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="144" priority="179">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="180">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="181">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="182">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C12">
+    <cfRule type="expression" dxfId="140" priority="175">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="176">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="177">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="178">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="136" priority="183">
+      <formula>$B12="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="184">
+      <formula>$B12="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="185">
+      <formula>$B12="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="186">
+      <formula>$B12="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="132" priority="136">
+      <formula>$B22="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="137">
+      <formula>$B22="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="138">
+      <formula>$B22="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="139">
+      <formula>$B22="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="128" priority="132">
+      <formula>$B21="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="133">
+      <formula>$B21="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="134">
+      <formula>$B21="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="135">
+      <formula>$B21="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="124" priority="128">
+      <formula>$B23="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="129">
+      <formula>$B23="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="130">
+      <formula>$B23="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="131">
+      <formula>$B23="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="120" priority="124">
+      <formula>$B22="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="125">
+      <formula>$B22="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="126">
+      <formula>$B22="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="127">
+      <formula>$B22="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="116" priority="120">
+      <formula>$B24="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="121">
+      <formula>$B24="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="122">
+      <formula>$B24="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="123">
+      <formula>$B24="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="112" priority="116">
+      <formula>$B24="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="117">
+      <formula>$B24="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="118">
+      <formula>$B24="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="119">
+      <formula>$B24="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="108" priority="107">
+      <formula>$B23="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="108">
+      <formula>$B23="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="109">
+      <formula>$B23="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="110">
+      <formula>$B23="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="104" priority="394">
+      <formula>#REF!="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="395">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="396">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="397">
+      <formula>#REF!="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="100" priority="99">
+      <formula>$B6="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="100">
+      <formula>$B6="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="101">
+      <formula>$B6="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="102">
+      <formula>$B6="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="96" priority="95">
+      <formula>$B6="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="96">
+      <formula>$B6="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="97">
+      <formula>$B6="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="98">
+      <formula>$B6="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="92" priority="91">
+      <formula>$B6="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="92">
+      <formula>$B6="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="93">
+      <formula>$B6="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="94">
+      <formula>$B6="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="88" priority="87">
+      <formula>$B7="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="88">
+      <formula>$B7="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="89">
+      <formula>$B7="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="90">
+      <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="94" priority="192">
+    <cfRule type="expression" dxfId="84" priority="82">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="193">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="194">
+    <cfRule type="expression" dxfId="81" priority="85">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="195">
+    <cfRule type="expression" dxfId="80" priority="86">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C25:C30 C32:C34">
-    <cfRule type="expression" dxfId="90" priority="176">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="79" priority="78">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="177">
+    <cfRule type="expression" dxfId="78" priority="79">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="178">
+    <cfRule type="expression" dxfId="77" priority="80">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="179">
+    <cfRule type="expression" dxfId="76" priority="81">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D30 D32:D34 D15:D21 D11:D12 D8:D9 D23:D24">
-    <cfRule type="expression" dxfId="86" priority="167">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="75" priority="73">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="172">
+    <cfRule type="expression" dxfId="74" priority="74">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="173">
+    <cfRule type="expression" dxfId="73" priority="75">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="174">
+    <cfRule type="expression" dxfId="72" priority="76">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="175">
+    <cfRule type="expression" dxfId="71" priority="77">
+      <formula>$B8="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="70" priority="69">
+      <formula>$B8="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>$B8="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="71">
+      <formula>$B8="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="72">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="81" priority="163">
+    <cfRule type="expression" dxfId="66" priority="65">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="164">
+    <cfRule type="expression" dxfId="65" priority="66">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="165">
+    <cfRule type="expression" dxfId="64" priority="67">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="166">
+    <cfRule type="expression" dxfId="63" priority="68">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22 D10">
-    <cfRule type="expression" dxfId="77" priority="221">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="222">
-      <formula>$B12="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="223">
-      <formula>$B12="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="224">
-      <formula>$B12="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="225">
-      <formula>$B12="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C30 C33">
-    <cfRule type="expression" dxfId="72" priority="136">
-      <formula>$B24="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="137">
-      <formula>$B24="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="138">
-      <formula>$B24="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="139">
-      <formula>$B24="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D26 D13:D14">
-    <cfRule type="expression" dxfId="68" priority="231">
-      <formula>$B$4="Plannedd"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="232">
-      <formula>$B12="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="233">
-      <formula>$B12="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="234">
-      <formula>$B12="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="235">
-      <formula>$B12="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B21">
-    <cfRule type="expression" dxfId="63" priority="77">
-      <formula>$B10="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="78">
-      <formula>$B10="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="79">
-      <formula>$B10="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80">
-      <formula>$B10="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C21">
-    <cfRule type="expression" dxfId="59" priority="73">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>$B11="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="74">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>$B11="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="75">
+    <cfRule type="expression" dxfId="59" priority="63">
       <formula>$B11="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>$B11="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="55" priority="81">
-      <formula>$B12="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="82">
-      <formula>$B12="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="83">
-      <formula>$B12="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="84">
-      <formula>$B12="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C21">
-    <cfRule type="expression" dxfId="51" priority="64">
-      <formula>$B12="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="65">
-      <formula>$B12="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="66">
-      <formula>$B12="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="67">
-      <formula>$B12="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>$B9="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="56" priority="53">
       <formula>$B9="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="49">
+    <cfRule type="expression" dxfId="55" priority="54">
       <formula>$B9="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>$B9="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
-      <formula>$B9="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="45">
-      <formula>$B9="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="46">
-      <formula>$B9="Dropped"</formula>
+    <cfRule type="expression" dxfId="53" priority="56">
+      <formula>$B11="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="57">
+      <formula>$B11="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="58">
+      <formula>$B11="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="59">
+      <formula>$B11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="39" priority="34">
-      <formula>$B22="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
-      <formula>$B22="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>$B22="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>$B22="Dropped"</formula>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="49" priority="47">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$B12="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$B12="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>$B12="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>$B12="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="35" priority="30">
-      <formula>$B21="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31">
-      <formula>$B21="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
-      <formula>$B21="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>$B21="Dropped"</formula>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="44" priority="43">
+      <formula>$B13="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$B13="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="45">
+      <formula>$B13="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="46">
+      <formula>$B13="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="31" priority="26">
-      <formula>$B23="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27">
-      <formula>$B23="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>$B23="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$B23="Dropped"</formula>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="40" priority="39">
+      <formula>$B13="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$B13="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="41">
+      <formula>$B13="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="42">
+      <formula>$B13="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="27" priority="22">
-      <formula>$B22="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>$B22="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="24">
-      <formula>$B22="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>$B22="Dropped"</formula>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="36" priority="35">
+      <formula>$B12="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$B12="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="37">
+      <formula>$B12="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="38">
+      <formula>$B12="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="23" priority="18">
-      <formula>$B24="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="19">
-      <formula>$B24="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="20">
-      <formula>$B24="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$B24="Dropped"</formula>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$B14="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$B14="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$B14="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$B14="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="19" priority="14">
-      <formula>$B24="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15">
-      <formula>$B24="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>$B24="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$B24="Dropped"</formula>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="27" priority="26">
+      <formula>$B14="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$B14="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="28">
+      <formula>$B14="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="29">
+      <formula>$B14="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>$B23="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>$B23="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>$B23="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>$B23="Dropped"</formula>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>$B14="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$B14="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>$B14="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>$B14="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="11" priority="236">
-      <formula>$B31="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="237">
-      <formula>$B31="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="238">
-      <formula>$B31="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="239">
-      <formula>$B31="Dropped"</formula>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="19" priority="18">
+      <formula>$B13="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$B13="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>$B13="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>$B13="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="7" priority="292">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$B15="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$B15="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$B15="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$B15="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$B15="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$B14="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$B14="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$B14="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$B14="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="3" priority="444">
       <formula>#REF!="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="293">
+    <cfRule type="expression" dxfId="2" priority="445">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="294">
+    <cfRule type="expression" dxfId="1" priority="446">
       <formula>#REF!="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="295">
+    <cfRule type="expression" dxfId="0" priority="447">
       <formula>#REF!="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$B6="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$B6="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$B6="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3446,13 +4266,13 @@
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E34</xm:sqref>
+          <xm:sqref>E32:E34 E5:E30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B34</xm:sqref>
+          <xm:sqref>B32:B34 B5:B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3465,7 +4285,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
@@ -3486,7 +4306,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -3494,7 +4314,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -3502,7 +4322,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>2</v>
@@ -3510,7 +4330,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -3518,13 +4338,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3572,98 +4392,98 @@
     </row>
     <row r="16" spans="1:8" ht="68.25" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.25">
       <c r="A17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23.25">
       <c r="A18" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.25">
       <c r="A19" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.25">
       <c r="A20" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25">
       <c r="A21" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23.25">
       <c r="A22" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23.25">
       <c r="A23" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="23.25">
       <c r="A24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25">
       <c r="A25" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25">
       <c r="A26" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23.25">
       <c r="A27" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +4504,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25">
-      <c r="A1" s="45"/>
+      <c r="A1" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
